--- a/Initialization/schemas/Bank_schema.xlsx
+++ b/Initialization/schemas/Bank_schema.xlsx
@@ -1,23 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\MiniACE\Initialization\schemas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24225" windowHeight="10650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="10650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Bank" sheetId="1" r:id="rId1"/>
     <sheet name="Bank.xml" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,26 +24,29 @@
   <connection id="1" name="Bank" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\GitHub\MiniACE\Initialization\schemas\Bank.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="2" name="Firm" type="4" refreshedVersion="0" background="1">
+  <connection id="2" name="Bank1" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="D:\GitHub\MiniACE\Initialization\schemas\Bank.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="3" name="Firm" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\GitHub\MiniACE\Initialization\schemas\Firm\Firm.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="3" name="Firm1" type="4" refreshedVersion="0" background="1">
+  <connection id="4" name="Firm1" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\GitHub\MiniACE\Initialization\schemas\Firm\Firm.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="4" name="Firm2" type="4" refreshedVersion="0" background="1">
+  <connection id="5" name="Firm2" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\GitHub\MiniACE\Initialization\schemas\Firm\Firm.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="5" name="Firm3" type="4" refreshedVersion="0" background="1">
+  <connection id="6" name="Firm3" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\GitHub\MiniACE\Initialization\schemas\Firm\Firm.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="6" name="Firm4" type="4" refreshedVersion="0" background="1">
+  <connection id="7" name="Firm4" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\GitHub\MiniACE\Initialization\schemas\Firm.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -126,16 +124,85 @@
   </si>
   <si>
     <t>outstanding_shares</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>012</t>
+  </si>
+  <si>
+    <t>013</t>
+  </si>
+  <si>
+    <t>014</t>
+  </si>
+  <si>
+    <t>015</t>
+  </si>
+  <si>
+    <t>016</t>
+  </si>
+  <si>
+    <t>017</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>100.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,7 +259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -202,11 +269,76 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="21">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -225,6 +357,127 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/xmlMaps.xml><?xml version="1.0" encoding="utf-8"?>
+<MapInfo xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" SelectionNamespaces="">
+  <Schema ID="Schema1">
+    <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
+      <xsd:element nillable="true" name="states">
+        <xsd:complexType>
+          <xsd:sequence minOccurs="0">
+            <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="xagent" form="unqualified">
+              <xsd:complexType>
+                <xsd:sequence minOccurs="0">
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="name" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="id" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="region_id" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="gov_id" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="day_of_month_to_act" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="total_assets" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="payment_account" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="current_assets" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="non_current_assets" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="total_liabilities" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="deposits" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="cb_debt" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="equity" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="value_at_risk" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="monthly_profit" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="interest_rate_on_cb_debt" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="alpha" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="dividend_payment" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="capital_tax_payment" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="capital_tax_rate" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="initialization" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="outstanding_shares" form="unqualified"/>
+                </xsd:sequence>
+              </xsd:complexType>
+            </xsd:element>
+          </xsd:sequence>
+        </xsd:complexType>
+      </xsd:element>
+    </xsd:schema>
+  </Schema>
+  <Map ID="1" Name="states_Map" RootElement="states" SchemaID="Schema1" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="2" DataBindingLoadMode="1"/>
+  </Map>
+</MapInfo>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:V2" tableType="xml" totalsRowShown="0" connectionId="2">
+  <autoFilter ref="A1:V2"/>
+  <tableColumns count="22">
+    <tableColumn id="1" uniqueName="name" name="Bank">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/name" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="2" uniqueName="id" name="3" dataDxfId="20">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/id" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="3" uniqueName="region_id" name="1" dataDxfId="19">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/region_id" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="4" uniqueName="gov_id" name="12" dataDxfId="18">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/gov_id" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="5" uniqueName="day_of_month_to_act" name="0" dataDxfId="17">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/day_of_month_to_act" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="6" uniqueName="total_assets" name="03" dataDxfId="16">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/total_assets" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="7" uniqueName="payment_account" name="04" dataDxfId="15">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/payment_account" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="8" uniqueName="current_assets" name="05" dataDxfId="14">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/current_assets" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="9" uniqueName="non_current_assets" name="06" dataDxfId="13">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/non_current_assets" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="10" uniqueName="total_liabilities" name="07" dataDxfId="12">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/total_liabilities" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="11" uniqueName="deposits" name="08" dataDxfId="11">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/deposits" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="12" uniqueName="cb_debt" name="09" dataDxfId="10">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/cb_debt" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="13" uniqueName="equity" name="010" dataDxfId="9">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/equity" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="14" uniqueName="value_at_risk" name="011" dataDxfId="8">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/value_at_risk" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="15" uniqueName="monthly_profit" name="012" dataDxfId="7">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/monthly_profit" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="16" uniqueName="interest_rate_on_cb_debt" name="013" dataDxfId="6">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/interest_rate_on_cb_debt" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="17" uniqueName="alpha" name="014" dataDxfId="5">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/alpha" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="18" uniqueName="dividend_payment" name="015" dataDxfId="4">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/dividend_payment" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="19" uniqueName="capital_tax_payment" name="016" dataDxfId="3">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/capital_tax_payment" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="20" uniqueName="capital_tax_rate" name="017" dataDxfId="2">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/capital_tax_rate" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="21" uniqueName="initialization" name="118" dataDxfId="1">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/initialization" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="22" uniqueName="outstanding_shares" name="100" dataDxfId="0">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/outstanding_shares" xmlDataType="string"/>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -270,7 +523,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -305,7 +558,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -482,21 +735,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:V3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="5" max="5" width="20.7109375" customWidth="1"/>
     <col min="6" max="6" width="25.140625" customWidth="1"/>
@@ -516,7 +769,7 @@
     <col min="22" max="22" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="2" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
@@ -584,7 +837,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" s="1" customFormat="1">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
@@ -652,75 +905,75 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="9">
         <v>3</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="9">
         <v>1</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="9">
         <v>1</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="9">
         <v>0</v>
       </c>
-      <c r="F3" s="3">
-        <v>0</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3">
-        <v>0</v>
-      </c>
-      <c r="J3" s="3">
-        <v>0</v>
-      </c>
-      <c r="K3" s="3">
-        <v>0</v>
-      </c>
-      <c r="L3" s="3">
-        <v>0</v>
-      </c>
-      <c r="M3" s="3">
-        <v>0</v>
-      </c>
-      <c r="N3" s="3">
-        <v>0</v>
-      </c>
-      <c r="O3" s="3">
-        <v>0</v>
-      </c>
-      <c r="P3" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>0</v>
-      </c>
-      <c r="R3" s="3">
-        <v>0</v>
-      </c>
-      <c r="S3" s="3">
-        <v>0</v>
-      </c>
-      <c r="T3" s="3">
-        <v>0</v>
-      </c>
-      <c r="U3" s="4">
+      <c r="F3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="U3" s="9">
         <v>1</v>
       </c>
-      <c r="V3" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V3" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -730,7 +983,7 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22">
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -740,7 +993,7 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22">
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -750,7 +1003,7 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22">
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -760,7 +1013,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22">
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -770,7 +1023,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22">
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -780,7 +1033,7 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22">
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -790,7 +1043,7 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22">
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -800,7 +1053,7 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22">
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -810,7 +1063,7 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22">
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -820,7 +1073,7 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22">
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -830,7 +1083,7 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22">
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -840,7 +1093,7 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22">
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -850,7 +1103,7 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:13">
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -860,7 +1113,7 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:13">
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -870,7 +1123,7 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="6:13">
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -880,7 +1133,7 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="6:13">
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -897,37 +1150,154 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F2:BL7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:BL7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:V2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="9" width="12" customWidth="1"/>
     <col min="10" max="64" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="6:64" x14ac:dyDescent="0.25">
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="3"/>
+    <row r="1" spans="1:64">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T1" t="s">
+        <v>44</v>
+      </c>
+      <c r="U1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:64">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="9">
+        <v>3</v>
+      </c>
+      <c r="C2" s="9">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9">
+        <v>1</v>
+      </c>
+      <c r="E2" s="9">
+        <v>0</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="U2" s="9">
+        <v>1</v>
+      </c>
+      <c r="V2" s="9" t="s">
+        <v>48</v>
+      </c>
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
@@ -968,7 +1338,7 @@
       <c r="BK2" s="3"/>
       <c r="BL2" s="3"/>
     </row>
-    <row r="3" spans="6:64" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:64">
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -1022,7 +1392,7 @@
       <c r="BK3" s="3"/>
       <c r="BL3" s="3"/>
     </row>
-    <row r="4" spans="6:64" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:64">
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -1076,7 +1446,7 @@
       <c r="BK4" s="3"/>
       <c r="BL4" s="3"/>
     </row>
-    <row r="5" spans="6:64" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:64">
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -1130,7 +1500,7 @@
       <c r="BK5" s="3"/>
       <c r="BL5" s="3"/>
     </row>
-    <row r="6" spans="6:64" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:64">
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -1184,7 +1554,7 @@
       <c r="BK6" s="3"/>
       <c r="BL6" s="3"/>
     </row>
-    <row r="7" spans="6:64" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:64">
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -1240,5 +1610,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>